--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/App-Ncstn.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/App-Ncstn.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>104.794801</v>
+        <v>72.266001</v>
       </c>
       <c r="H2">
-        <v>314.384403</v>
+        <v>216.798003</v>
       </c>
       <c r="I2">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="J2">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.01567066666667</v>
+        <v>10.67287833333334</v>
       </c>
       <c r="N2">
-        <v>75.047012</v>
+        <v>32.018635</v>
       </c>
       <c r="O2">
-        <v>0.3530689998156723</v>
+        <v>0.2083050184412124</v>
       </c>
       <c r="P2">
-        <v>0.3530689998156723</v>
+        <v>0.2083050184412124</v>
       </c>
       <c r="Q2">
-        <v>2621.512229394871</v>
+        <v>771.2862363095452</v>
       </c>
       <c r="R2">
-        <v>23593.61006455384</v>
+        <v>6941.576126785905</v>
       </c>
       <c r="S2">
-        <v>0.1367231876896852</v>
+        <v>0.06144273704844128</v>
       </c>
       <c r="T2">
-        <v>0.1367231876896851</v>
+        <v>0.06144273704844127</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>104.794801</v>
+        <v>72.266001</v>
       </c>
       <c r="H3">
-        <v>314.384403</v>
+        <v>216.798003</v>
       </c>
       <c r="I3">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="J3">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>77.993656</v>
       </c>
       <c r="O3">
-        <v>0.3669318921836303</v>
+        <v>0.5074067008595954</v>
       </c>
       <c r="P3">
-        <v>0.3669318921836303</v>
+        <v>0.5074067008595954</v>
       </c>
       <c r="Q3">
-        <v>2724.443219927486</v>
+        <v>1878.763207496552</v>
       </c>
       <c r="R3">
-        <v>24519.98897934737</v>
+        <v>16908.86886746897</v>
       </c>
       <c r="S3">
-        <v>0.1420914835076011</v>
+        <v>0.1496673326971804</v>
       </c>
       <c r="T3">
-        <v>0.1420914835076011</v>
+        <v>0.1496673326971804</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>104.794801</v>
+        <v>72.266001</v>
       </c>
       <c r="H4">
-        <v>314.384403</v>
+        <v>216.798003</v>
       </c>
       <c r="I4">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="J4">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.83851733333334</v>
+        <v>14.566016</v>
       </c>
       <c r="N4">
-        <v>59.51555200000001</v>
+        <v>43.698048</v>
       </c>
       <c r="O4">
-        <v>0.2799991080006975</v>
+        <v>0.2842882806991923</v>
       </c>
       <c r="P4">
-        <v>0.2799991080006974</v>
+        <v>0.2842882806991923</v>
       </c>
       <c r="Q4">
-        <v>2078.973476081718</v>
+        <v>1052.627726822016</v>
       </c>
       <c r="R4">
-        <v>18710.76128473546</v>
+        <v>9473.649541398143</v>
       </c>
       <c r="S4">
-        <v>0.1084274479382499</v>
+        <v>0.08385515724808895</v>
       </c>
       <c r="T4">
-        <v>0.1084274479382499</v>
+        <v>0.08385515724808895</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>136.674446</v>
       </c>
       <c r="H5">
-        <v>410.0233380000001</v>
+        <v>410.023338</v>
       </c>
       <c r="I5">
-        <v>0.5050451128841345</v>
+        <v>0.5578585839920717</v>
       </c>
       <c r="J5">
-        <v>0.5050451128841343</v>
+        <v>0.5578585839920718</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.01567066666667</v>
+        <v>10.67287833333334</v>
       </c>
       <c r="N5">
-        <v>75.047012</v>
+        <v>32.018635</v>
       </c>
       <c r="O5">
-        <v>0.3530689998156723</v>
+        <v>0.2083050184412124</v>
       </c>
       <c r="P5">
-        <v>0.3530689998156723</v>
+        <v>0.2083050184412124</v>
       </c>
       <c r="Q5">
-        <v>3419.002929685118</v>
+        <v>1458.709733433737</v>
       </c>
       <c r="R5">
-        <v>30771.02636716606</v>
+        <v>13128.38760090363</v>
       </c>
       <c r="S5">
-        <v>0.1783157728677947</v>
+        <v>0.1162047426260571</v>
       </c>
       <c r="T5">
-        <v>0.1783157728677946</v>
+        <v>0.1162047426260571</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>136.674446</v>
       </c>
       <c r="H6">
-        <v>410.0233380000001</v>
+        <v>410.023338</v>
       </c>
       <c r="I6">
-        <v>0.5050451128841345</v>
+        <v>0.5578585839920717</v>
       </c>
       <c r="J6">
-        <v>0.5050451128841343</v>
+        <v>0.5578585839920718</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>77.993656</v>
       </c>
       <c r="O6">
-        <v>0.3669318921836303</v>
+        <v>0.5074067008595954</v>
       </c>
       <c r="P6">
-        <v>0.3669318921836303</v>
+        <v>0.5074067008595954</v>
       </c>
       <c r="Q6">
-        <v>3553.246575104859</v>
+        <v>3553.246575104858</v>
       </c>
       <c r="R6">
         <v>31979.21917594373</v>
       </c>
       <c r="S6">
-        <v>0.1853171589086706</v>
+        <v>0.2830611836496226</v>
       </c>
       <c r="T6">
-        <v>0.1853171589086706</v>
+        <v>0.2830611836496226</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>136.674446</v>
       </c>
       <c r="H7">
-        <v>410.0233380000001</v>
+        <v>410.023338</v>
       </c>
       <c r="I7">
-        <v>0.5050451128841345</v>
+        <v>0.5578585839920717</v>
       </c>
       <c r="J7">
-        <v>0.5050451128841343</v>
+        <v>0.5578585839920718</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.83851733333334</v>
+        <v>14.566016</v>
       </c>
       <c r="N7">
-        <v>59.51555200000001</v>
+        <v>43.698048</v>
       </c>
       <c r="O7">
-        <v>0.2799991080006975</v>
+        <v>0.2842882806991923</v>
       </c>
       <c r="P7">
-        <v>0.2799991080006974</v>
+        <v>0.2842882806991923</v>
       </c>
       <c r="Q7">
-        <v>2711.418365994731</v>
+        <v>1990.802167227136</v>
       </c>
       <c r="R7">
-        <v>24402.76529395258</v>
+        <v>17917.21950504422</v>
       </c>
       <c r="S7">
-        <v>0.1414121811076692</v>
+        <v>0.158592657716392</v>
       </c>
       <c r="T7">
-        <v>0.1414121811076691</v>
+        <v>0.158592657716392</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.14904533333333</v>
+        <v>36.057927</v>
       </c>
       <c r="H8">
-        <v>87.447136</v>
+        <v>108.173781</v>
       </c>
       <c r="I8">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="J8">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.01567066666667</v>
+        <v>10.67287833333334</v>
       </c>
       <c r="N8">
-        <v>75.047012</v>
+        <v>32.018635</v>
       </c>
       <c r="O8">
-        <v>0.3530689998156723</v>
+        <v>0.2083050184412124</v>
       </c>
       <c r="P8">
-        <v>0.3530689998156723</v>
+        <v>0.2083050184412124</v>
       </c>
       <c r="Q8">
-        <v>729.1829183064035</v>
+        <v>384.8418678232151</v>
       </c>
       <c r="R8">
-        <v>6562.646264757632</v>
+        <v>3463.576810408935</v>
       </c>
       <c r="S8">
-        <v>0.03803003925819253</v>
+        <v>0.03065753876671398</v>
       </c>
       <c r="T8">
-        <v>0.03803003925819253</v>
+        <v>0.03065753876671397</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.14904533333333</v>
+        <v>36.057927</v>
       </c>
       <c r="H9">
-        <v>87.447136</v>
+        <v>108.173781</v>
       </c>
       <c r="I9">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="J9">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>77.993656</v>
       </c>
       <c r="O9">
-        <v>0.3669318921836303</v>
+        <v>0.5074067008595954</v>
       </c>
       <c r="P9">
-        <v>0.3669318921836303</v>
+        <v>0.5074067008595954</v>
       </c>
       <c r="Q9">
-        <v>757.813538152135</v>
+        <v>937.429851503704</v>
       </c>
       <c r="R9">
-        <v>6820.321843369216</v>
+        <v>8436.868663533336</v>
       </c>
       <c r="S9">
-        <v>0.03952324976735868</v>
+        <v>0.07467818451279243</v>
       </c>
       <c r="T9">
-        <v>0.03952324976735867</v>
+        <v>0.07467818451279243</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.14904533333333</v>
+        <v>36.057927</v>
       </c>
       <c r="H10">
-        <v>87.447136</v>
+        <v>108.173781</v>
       </c>
       <c r="I10">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="J10">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.83851733333334</v>
+        <v>14.566016</v>
       </c>
       <c r="N10">
-        <v>59.51555200000001</v>
+        <v>43.698048</v>
       </c>
       <c r="O10">
-        <v>0.2799991080006975</v>
+        <v>0.2842882806991923</v>
       </c>
       <c r="P10">
-        <v>0.2799991080006974</v>
+        <v>0.2842882806991923</v>
       </c>
       <c r="Q10">
-        <v>578.2738410954526</v>
+        <v>525.220341608832</v>
       </c>
       <c r="R10">
-        <v>5204.464569859073</v>
+        <v>4726.983074479487</v>
       </c>
       <c r="S10">
-        <v>0.03015947895477837</v>
+        <v>0.0418404657347113</v>
       </c>
       <c r="T10">
-        <v>0.03015947895477836</v>
+        <v>0.0418404657347113</v>
       </c>
     </row>
   </sheetData>
